--- a/output/fit_clients/fit_round_401.xlsx
+++ b/output/fit_clients/fit_round_401.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1873282666.396646</v>
+        <v>2085786440.934717</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09208303784447133</v>
+        <v>0.09054824047069242</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03262102787883091</v>
+        <v>0.03380392301078335</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>936641311.7979503</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2248386479.730053</v>
+        <v>1912636609.732283</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1552237132500431</v>
+        <v>0.1329374952182029</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04495590279556692</v>
+        <v>0.04142114322307609</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1124193318.41133</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3923697631.040139</v>
+        <v>4994190896.954863</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1158833888179566</v>
+        <v>0.140753933920548</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03517113567835665</v>
+        <v>0.03341853938357858</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>144</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1961848824.299553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3817932800.986831</v>
+        <v>2985324799.142498</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1023948007291167</v>
+        <v>0.103403163710356</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04849486306382623</v>
+        <v>0.04030322339036197</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1908966416.221809</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2354259216.531589</v>
+        <v>1945764092.224854</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1272319185572685</v>
+        <v>0.1456815000878662</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0523889661544314</v>
+        <v>0.0441034401906555</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1177129599.535214</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2409676150.650211</v>
+        <v>2802773047.895528</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1010291966627695</v>
+        <v>0.08110349445721177</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04801014279132004</v>
+        <v>0.04394316912659809</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>126</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1204838097.113357</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3903605911.182285</v>
+        <v>3180943294.951536</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1845259713451817</v>
+        <v>0.1877355801189753</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02862829375923101</v>
+        <v>0.02993284050819752</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1951803105.496134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2126293722.69203</v>
+        <v>1392695621.978373</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1597641829226858</v>
+        <v>0.1623171437800344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03743178329033918</v>
+        <v>0.03426881195274513</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1063146870.451831</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5216135160.284944</v>
+        <v>4877192606.57188</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2128560880630927</v>
+        <v>0.134167089174276</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04116523247140751</v>
+        <v>0.03704759509894089</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>168</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2608067696.234947</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3012180903.220245</v>
+        <v>3752657488.565887</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1511206585671004</v>
+        <v>0.1745862359319478</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03003436663192226</v>
+        <v>0.04364951930454285</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>165</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1506090395.461701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2383256948.017152</v>
+        <v>3158126305.647524</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1284541567671789</v>
+        <v>0.1337500696945278</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0501129752143996</v>
+        <v>0.0349259388574324</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>136</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1191628435.56059</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3993768581.922118</v>
+        <v>3880241462.414334</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08602109726393931</v>
+        <v>0.09004409259723606</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01962198077810668</v>
+        <v>0.02769517875435617</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>134</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1996884346.221393</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3147439302.728423</v>
+        <v>2448420378.739681</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1481184358180197</v>
+        <v>0.1450784539991394</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03945711014408313</v>
+        <v>0.03753889001805433</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1573719675.13822</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1642843556.041696</v>
+        <v>1442168348.157492</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08910974612167515</v>
+        <v>0.08040566869299366</v>
       </c>
       <c r="G15" t="n">
-        <v>0.035433029061456</v>
+        <v>0.03282394999129037</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>821421895.9173474</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2631928761.136962</v>
+        <v>2537841729.08799</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08214029301307249</v>
+        <v>0.08999563608579463</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04483637132640032</v>
+        <v>0.03414547024984316</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1315964399.607808</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4563342746.291784</v>
+        <v>4344629603.805316</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1514379202961878</v>
+        <v>0.1097925871820385</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04262397092496881</v>
+        <v>0.03998936542166529</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>117</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2281671379.933995</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3964631387.832846</v>
+        <v>3907726766.849891</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1558786037810851</v>
+        <v>0.1378349433264393</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02666634677566853</v>
+        <v>0.02339830641001675</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>131</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1982315654.400839</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1257980486.833604</v>
+        <v>1076492544.039136</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1435128582848446</v>
+        <v>0.169716483175678</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01734594435215236</v>
+        <v>0.02144038376683188</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>628990335.496871</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2808118206.880793</v>
+        <v>1692815991.037246</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1507515051712049</v>
+        <v>0.1273962412422174</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02951386756719491</v>
+        <v>0.02877526325074761</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>51</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1404059043.719982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2105356474.827007</v>
+        <v>2083767838.643545</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08451311678054241</v>
+        <v>0.09330657267262485</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03964069633389125</v>
+        <v>0.04041586940008211</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1052678263.301875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3069329799.755625</v>
+        <v>3278896943.827282</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111398934883688</v>
+        <v>0.1153478518005235</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05523023378046897</v>
+        <v>0.04196401485793042</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1534664957.273519</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1462655312.750816</v>
+        <v>1185713664.316525</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1319432371087956</v>
+        <v>0.1278617494061081</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05113164132862486</v>
+        <v>0.04164970806967378</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>731327648.6420876</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2868737756.287311</v>
+        <v>3975954540.773115</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1147917002983502</v>
+        <v>0.1432602749762031</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02416541995815065</v>
+        <v>0.02362351844946438</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>117</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1434368922.226263</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1090916159.50128</v>
+        <v>987339356.4395634</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1216874210613041</v>
+        <v>0.1100772823770579</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02121803802787234</v>
+        <v>0.02753311186705165</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>545458122.8499194</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1204049004.20674</v>
+        <v>1269394540.514385</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08304298667851527</v>
+        <v>0.08722446175198463</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02494269165905127</v>
+        <v>0.03680177061580209</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>602024524.1134713</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3797212576.671574</v>
+        <v>3502460580.984715</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1408696521466827</v>
+        <v>0.1184874796960783</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02663917201165803</v>
+        <v>0.01905976041656869</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1898606308.574799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3372781485.087581</v>
+        <v>3294787087.577696</v>
       </c>
       <c r="F28" t="n">
-        <v>0.107200903012432</v>
+        <v>0.1332195765056178</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03674753703730987</v>
+        <v>0.04934199501303546</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>131</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1686390786.12646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5327286286.046521</v>
+        <v>5752622864.670712</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1043182899165643</v>
+        <v>0.1491340078767205</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03047437195709741</v>
+        <v>0.03563077192047358</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>177</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2663643067.925268</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2004778402.536892</v>
+        <v>1817214563.751809</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1008087582194703</v>
+        <v>0.1000266831039153</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03474109796575046</v>
+        <v>0.02842662062223591</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1002389239.261768</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1155766584.015047</v>
+        <v>1410420224.346017</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07572467758142662</v>
+        <v>0.1018448292061103</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04481742290152396</v>
+        <v>0.04887662314634127</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>577883253.9036976</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1338664452.604836</v>
+        <v>1292841363.795877</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0770323697221232</v>
+        <v>0.07285512855640949</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02851439794384665</v>
+        <v>0.02347320512415497</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>669332261.2587239</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2802331537.869822</v>
+        <v>2841167787.771904</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1451097180096152</v>
+        <v>0.1403315896976917</v>
       </c>
       <c r="G33" t="n">
-        <v>0.057751119256537</v>
+        <v>0.04377824785821661</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>118</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1401165781.411319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1359829995.935645</v>
+        <v>1469391423.947907</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09597253833568865</v>
+        <v>0.1205915194652188</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01736545375119756</v>
+        <v>0.02419128532878391</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>679914976.8293391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1238933655.073835</v>
+        <v>1360282211.158991</v>
       </c>
       <c r="F35" t="n">
-        <v>0.098998598163521</v>
+        <v>0.1150293827646914</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0327646639183037</v>
+        <v>0.02719860987174868</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>619466793.7338344</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1961954207.444855</v>
+        <v>2996662862.433596</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1103699508919607</v>
+        <v>0.135755243335828</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01892660549817721</v>
+        <v>0.02216644591846559</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>101</v>
-      </c>
-      <c r="J36" t="n">
-        <v>980977168.8260382</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2793370403.313462</v>
+        <v>1802918918.087596</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08715202877419674</v>
+        <v>0.08735100065818795</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0261376019808842</v>
+        <v>0.04222257490599482</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>107</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1396685338.068795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1982317962.429097</v>
+        <v>2165037106.852186</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07831249884168162</v>
+        <v>0.08282005652399187</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02946183033222091</v>
+        <v>0.0307793441792108</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>991158962.3502231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2180986422.336825</v>
+        <v>1591349019.671285</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1691378522047511</v>
+        <v>0.1847697025159834</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02036872217174007</v>
+        <v>0.02918805445619283</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1090493178.278451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1254932789.209958</v>
+        <v>1152002842.491943</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1167496465830093</v>
+        <v>0.1072693298594329</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03750907582920159</v>
+        <v>0.03851787032635927</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>627466422.1675477</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1852792550.015552</v>
+        <v>2217698430.145697</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1173716863582588</v>
+        <v>0.1430080977030435</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03862888028378465</v>
+        <v>0.04534322827383264</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>102</v>
-      </c>
-      <c r="J41" t="n">
-        <v>926396363.6581936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2883745465.39609</v>
+        <v>3542463571.368148</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07916666653084939</v>
+        <v>0.1192696468593971</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04375705125311292</v>
+        <v>0.03117620944754024</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1441872685.175082</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2729221854.988128</v>
+        <v>2569455369.28761</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1883815130203206</v>
+        <v>0.1382756720314393</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0232308319420935</v>
+        <v>0.01582601943249843</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>139</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1364610953.10446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2148776340.243345</v>
+        <v>2047947108.051835</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06292012497770674</v>
+        <v>0.07781356373052629</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03050757417552251</v>
+        <v>0.0296055912488841</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1074388306.155506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1719952845.030279</v>
+        <v>1848587913.489879</v>
       </c>
       <c r="F45" t="n">
-        <v>0.143790514947574</v>
+        <v>0.1189583864114844</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05148525203063871</v>
+        <v>0.0354702484587221</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>859976385.156167</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5688155682.892807</v>
+        <v>4574222188.209806</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1274855939858506</v>
+        <v>0.1094004122218559</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05565528728330934</v>
+        <v>0.04151942656856965</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>142</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2844077907.6347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4761244588.768949</v>
+        <v>4055474040.988403</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1981293008436609</v>
+        <v>0.200515751689822</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0549750355167141</v>
+        <v>0.05546770782080086</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2380622336.649695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4088234701.344957</v>
+        <v>4703502895.841854</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06865405030555601</v>
+        <v>0.09321297400128439</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03399887748900378</v>
+        <v>0.03261127005017811</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2044117379.915179</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1434082368.026387</v>
+        <v>1965306576.741697</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1887224204471397</v>
+        <v>0.1789994715601964</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0413092094993208</v>
+        <v>0.03996164716125698</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>717041226.2898359</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3256252755.090447</v>
+        <v>3516700697.986627</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1609695436131782</v>
+        <v>0.1684375574805351</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03320697487257179</v>
+        <v>0.03278452040937217</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>138</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1628126419.151415</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1248439491.258574</v>
+        <v>1470241033.551162</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1273802810551412</v>
+        <v>0.1228720100427217</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0401789194683598</v>
+        <v>0.03406507491277526</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>624219789.3373083</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3746300905.995936</v>
+        <v>4562233754.029751</v>
       </c>
       <c r="F52" t="n">
-        <v>0.118509925096862</v>
+        <v>0.1314276908379064</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04435505223729235</v>
+        <v>0.04114666947050688</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>165</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1873150524.424956</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2717298846.413296</v>
+        <v>2515468290.807062</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1351814717635758</v>
+        <v>0.2006342031290153</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02603403509178715</v>
+        <v>0.03208830982767773</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1358649475.204381</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4895125691.138448</v>
+        <v>4724878712.598301</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1447109538532311</v>
+        <v>0.1351061838921378</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04863990008481878</v>
+        <v>0.03680385582293438</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>130</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2447562979.932302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3272195970.735303</v>
+        <v>4363919156.422108</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2183210638767519</v>
+        <v>0.1358233483095465</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02700117521507216</v>
+        <v>0.02415357354192041</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1636097928.196807</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1631969328.611166</v>
+        <v>1773287344.96868</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1261964336965764</v>
+        <v>0.114161287744427</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04354541569230525</v>
+        <v>0.04799593151690265</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>815984687.0335208</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4589312833.370614</v>
+        <v>4495198151.132396</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1568762491866425</v>
+        <v>0.1133926362078536</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01802124221114629</v>
+        <v>0.02687135771360004</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>127</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2294656554.548522</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1631148618.184473</v>
+        <v>1389573329.361729</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1369093486193796</v>
+        <v>0.1414052306887112</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03799428990806517</v>
+        <v>0.02695433842495875</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>815574328.2753791</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4584685119.718611</v>
+        <v>4627844579.766479</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1033660431966243</v>
+        <v>0.08073903428958816</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04419236996445117</v>
+        <v>0.04293456933377925</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2292342507.603562</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2596280043.544898</v>
+        <v>3023443188.87274</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1509380407590024</v>
+        <v>0.1463576921648494</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02214999126756641</v>
+        <v>0.030750917922988</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>124</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1298140049.788495</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2068132056.548146</v>
+        <v>2628604640.437191</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1421851180769969</v>
+        <v>0.1236137421288013</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02874179874426442</v>
+        <v>0.0244608618087125</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>138</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1034066096.636824</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1777966072.348833</v>
+        <v>2099050635.016526</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1871466310593372</v>
+        <v>0.1295818492513576</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0456736777580789</v>
+        <v>0.03854224119813312</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>888983060.9593687</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4320455148.236488</v>
+        <v>3685119354.165067</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1000421728452501</v>
+        <v>0.08049102734869167</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03772250926873918</v>
+        <v>0.03851798838922579</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2160227622.198582</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4227162783.942747</v>
+        <v>4387176268.520936</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1504072975984981</v>
+        <v>0.1198208156392323</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03110829022736342</v>
+        <v>0.03338239713695017</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>124</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2113581443.82888</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4865799989.204611</v>
+        <v>4085266679.690563</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1714781145110382</v>
+        <v>0.1667651684821398</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02859125067556724</v>
+        <v>0.02622851144973402</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>143</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2432899961.540234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3510994730.270027</v>
+        <v>4489968155.155929</v>
       </c>
       <c r="F66" t="n">
-        <v>0.143409759375844</v>
+        <v>0.1138171189923434</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03934360468695106</v>
+        <v>0.03658952166701686</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>118</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1755497312.505077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3276866045.216057</v>
+        <v>3221771944.715422</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09745536670874731</v>
+        <v>0.08168099779954714</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04862797962515642</v>
+        <v>0.03220508529756593</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>129</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1638433017.447852</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4715145418.9461</v>
+        <v>5128167252.793938</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1165422793841517</v>
+        <v>0.1416071933279994</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05003585395966215</v>
+        <v>0.05026532875269064</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>128</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2357572748.607805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2385584973.332698</v>
+        <v>2016784798.755028</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1341480898935275</v>
+        <v>0.1715895868733635</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03693409408112911</v>
+        <v>0.04844045424718586</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1192792541.517885</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3158476791.694371</v>
+        <v>2976620433.381599</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0979591263007359</v>
+        <v>0.07322204969284674</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04548075387833026</v>
+        <v>0.04199944600651033</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>114</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1579238383.143348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4932975553.798703</v>
+        <v>3781521604.813774</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1206921289021627</v>
+        <v>0.1208473640566007</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02984706033093531</v>
+        <v>0.03109444755438792</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>146</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2466487877.589183</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1472177537.169478</v>
+        <v>1971836909.321431</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1050480824686604</v>
+        <v>0.09045125258784908</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0350930667598456</v>
+        <v>0.049539279821425</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>736088800.0789976</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2824971844.218937</v>
+        <v>2229941415.058053</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06832141733208884</v>
+        <v>0.07643904429142484</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04230470346144621</v>
+        <v>0.05205556300742675</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>152</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1412485934.132064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2763040804.120325</v>
+        <v>3119776605.271727</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1551656649837106</v>
+        <v>0.1378468857427195</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02914089669156846</v>
+        <v>0.02707521533202676</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>136</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1381520487.92693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1672386441.231526</v>
+        <v>2507574156.991672</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1249425100311029</v>
+        <v>0.1246133272951049</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03616981610973984</v>
+        <v>0.02315325945840856</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>836193215.5272987</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4068845538.144839</v>
+        <v>4217845947.286129</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09297570361854368</v>
+        <v>0.09327462290042406</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03352970907165023</v>
+        <v>0.02323106795662009</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2034422756.691801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1947662500.201978</v>
+        <v>1788887808.30708</v>
       </c>
       <c r="F77" t="n">
-        <v>0.113886175168982</v>
+        <v>0.1128033438853073</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02961146616005815</v>
+        <v>0.02376201780049049</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>973831303.9452899</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4681088763.840825</v>
+        <v>3337212804.211748</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0964074834761328</v>
+        <v>0.09206871789529693</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0393988669414528</v>
+        <v>0.03853358729523662</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>139</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2340544298.918889</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1194750801.820121</v>
+        <v>1555650269.621782</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1361175509558694</v>
+        <v>0.1132052007837499</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04002098291877414</v>
+        <v>0.03890843801102493</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>597375381.7561778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5439233781.290538</v>
+        <v>3875427801.920797</v>
       </c>
       <c r="F80" t="n">
-        <v>0.110951294144847</v>
+        <v>0.0899577059691659</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02793465424240799</v>
+        <v>0.03260774402599211</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2719616961.705959</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3462697806.384306</v>
+        <v>4093055597.773792</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1277474674969383</v>
+        <v>0.1094808136367162</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03000261599447653</v>
+        <v>0.01992738214969699</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1731348846.469696</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4790882185.848528</v>
+        <v>4872686843.085918</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1489918134436959</v>
+        <v>0.1810900826002577</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02376169555894543</v>
+        <v>0.02498498284400882</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>140</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2395441088.556993</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1522518737.469326</v>
+        <v>1790041287.270948</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1382180082864304</v>
+        <v>0.09772319219092652</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02834685917849395</v>
+        <v>0.02874604812393552</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>761259294.6001322</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2133146215.499076</v>
+        <v>2418785245.683584</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1032682940760704</v>
+        <v>0.08747227053559152</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03422708093983014</v>
+        <v>0.04295377388693399</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1066573093.245239</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2397485696.688694</v>
+        <v>2684960760.625999</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1630592553886702</v>
+        <v>0.1126021395839771</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04958261631889393</v>
+        <v>0.04021611820498042</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>151</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1198742841.972678</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2116348420.977503</v>
+        <v>1928614086.004943</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1066061013181889</v>
+        <v>0.1072258961390807</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02462349117914176</v>
+        <v>0.02088873989706506</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1058174254.297159</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1495436857.7541</v>
+        <v>1159174546.328802</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1434003265017597</v>
+        <v>0.1695883744020528</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04072873312207778</v>
+        <v>0.03509381620377543</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>747718560.1850984</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2702993778.330546</v>
+        <v>2818996803.333635</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1704400733055992</v>
+        <v>0.1364743755132326</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03773432099137534</v>
+        <v>0.03921287684520053</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>158</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1351496890.275377</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3276180947.688108</v>
+        <v>2603608561.593868</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1246458643107417</v>
+        <v>0.1322380980794067</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03890158022785494</v>
+        <v>0.03620741108368463</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>134</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1638090491.723388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1495355360.95116</v>
+        <v>2137602610.31599</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1165427962889613</v>
+        <v>0.1146590444238128</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05321238412424267</v>
+        <v>0.03936102289988868</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>747677658.3533044</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1476402924.025876</v>
+        <v>2096573998.231515</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1593080699231424</v>
+        <v>0.1825579075398315</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04073037414426431</v>
+        <v>0.05668828818664962</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>738201504.0792884</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2200618936.397089</v>
+        <v>1849328810.072503</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1026994995733263</v>
+        <v>0.077357983619428</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03345985293172823</v>
+        <v>0.04519495492276841</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>114</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1100309429.536324</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4794652930.251782</v>
+        <v>4751104896.400799</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1124881958941833</v>
+        <v>0.1111684001406378</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03724378383431318</v>
+        <v>0.05219152577456478</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2397326414.372021</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2008579553.67408</v>
+        <v>2489318069.581269</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1587571521671589</v>
+        <v>0.1155549360461289</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03048406739960563</v>
+        <v>0.03558055200814785</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1004289776.291856</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2087565196.876325</v>
+        <v>2036447351.128071</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08547701025916513</v>
+        <v>0.1036435692394237</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03854072192984421</v>
+        <v>0.03595303294803873</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>97</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1043782664.529241</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2023722266.480395</v>
+        <v>2314170866.394448</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1040489139930859</v>
+        <v>0.1272532353996137</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03453896842344917</v>
+        <v>0.04094230805491175</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1011861117.696119</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3805585051.836699</v>
+        <v>3280249623.483891</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1152981389317811</v>
+        <v>0.1284187859997625</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0284774789014383</v>
+        <v>0.02104136620398123</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>128</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1902792566.669842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3087415169.474517</v>
+        <v>3121499501.925724</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1166743206210753</v>
+        <v>0.08335160273450602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02738022537571526</v>
+        <v>0.02705939306129865</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1543707575.407334</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3266248270.533632</v>
+        <v>2834200518.098618</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1463010313648066</v>
+        <v>0.124002129025757</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02818149020357994</v>
+        <v>0.03381819847989347</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>125</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1633124140.493532</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3401113345.922332</v>
+        <v>4807559710.840972</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1453878043977454</v>
+        <v>0.1634241625207531</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02335915059415513</v>
+        <v>0.0170829818097048</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1700556695.838939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3068631310.230412</v>
+        <v>3244882025.14022</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1462889045153003</v>
+        <v>0.1806055869845056</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03882702995890188</v>
+        <v>0.04756887715018868</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>162</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1534315753.231375</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_401.xlsx
+++ b/output/fit_clients/fit_round_401.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2085786440.934717</v>
+        <v>2286410929.914775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09054824047069242</v>
+        <v>0.08731724085543038</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03380392301078335</v>
+        <v>0.03814267997307035</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1912636609.732283</v>
+        <v>2256165678.559253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1329374952182029</v>
+        <v>0.1309624960585609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04142114322307609</v>
+        <v>0.03735756252976719</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4994190896.954863</v>
+        <v>4325987447.942077</v>
       </c>
       <c r="F4" t="n">
-        <v>0.140753933920548</v>
+        <v>0.1262421883972548</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341853938357858</v>
+        <v>0.02992773653327475</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2985324799.142498</v>
+        <v>3758614683.67966</v>
       </c>
       <c r="F5" t="n">
-        <v>0.103403163710356</v>
+        <v>0.09711449266600868</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04030322339036197</v>
+        <v>0.04112669383172007</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1945764092.224854</v>
+        <v>2109970921.188449</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1456815000878662</v>
+        <v>0.09587881140390125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0441034401906555</v>
+        <v>0.04376383253850261</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2802773047.895528</v>
+        <v>2741210123.670465</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08110349445721177</v>
+        <v>0.09687567755684078</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04394316912659809</v>
+        <v>0.04456226936483115</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3180943294.951536</v>
+        <v>3904839893.302159</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1877355801189753</v>
+        <v>0.1597421531159306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02993284050819752</v>
+        <v>0.03025886173163811</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1392695621.978373</v>
+        <v>2122026768.365157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1623171437800344</v>
+        <v>0.1654357376363977</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03426881195274513</v>
+        <v>0.02899793120169742</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4877192606.57188</v>
+        <v>3660084639.328973</v>
       </c>
       <c r="F10" t="n">
-        <v>0.134167089174276</v>
+        <v>0.1343037943181949</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03704759509894089</v>
+        <v>0.03433674906321239</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3752657488.565887</v>
+        <v>2610117870.083382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1745862359319478</v>
+        <v>0.1165479400968319</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04364951930454285</v>
+        <v>0.03817453602009568</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3158126305.647524</v>
+        <v>2872219771.248013</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1337500696945278</v>
+        <v>0.1878118754368411</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0349259388574324</v>
+        <v>0.04610672873828503</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3880241462.414334</v>
+        <v>3422230769.400369</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09004409259723606</v>
+        <v>0.0701497890871952</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02769517875435617</v>
+        <v>0.02377506815083576</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2448420378.739681</v>
+        <v>3904746693.68013</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1450784539991394</v>
+        <v>0.1735322703295468</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03753889001805433</v>
+        <v>0.04244344139815107</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1442168348.157492</v>
+        <v>1718185010.33695</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08040566869299366</v>
+        <v>0.08572783641949532</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03282394999129037</v>
+        <v>0.04461798400753757</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2537841729.08799</v>
+        <v>2586131099.94167</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08999563608579463</v>
+        <v>0.08066124694866367</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03414547024984316</v>
+        <v>0.04902808733528116</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4344629603.805316</v>
+        <v>3495191620.241021</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1097925871820385</v>
+        <v>0.1073149133697052</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03998936542166529</v>
+        <v>0.04613551012794204</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3907726766.849891</v>
+        <v>3377127826.538356</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1378349433264393</v>
+        <v>0.1598803730302169</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02339830641001675</v>
+        <v>0.02904411689817301</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1076492544.039136</v>
+        <v>1118730214.6584</v>
       </c>
       <c r="F19" t="n">
-        <v>0.169716483175678</v>
+        <v>0.11633693358938</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02144038376683188</v>
+        <v>0.01925350986797921</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1692815991.037246</v>
+        <v>2055954040.083816</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1273962412422174</v>
+        <v>0.1372824138511343</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02877526325074761</v>
+        <v>0.02991463605585292</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2083767838.643545</v>
+        <v>2405757571.46662</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09330657267262485</v>
+        <v>0.0985278893146212</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04041586940008211</v>
+        <v>0.04178670575549711</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3278896943.827282</v>
+        <v>3263576230.106793</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1153478518005235</v>
+        <v>0.1150285661926542</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04196401485793042</v>
+        <v>0.04938639124454842</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1185713664.316525</v>
+        <v>1548104933.145997</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1278617494061081</v>
+        <v>0.1467761706605787</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04164970806967378</v>
+        <v>0.03741584770928077</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3975954540.773115</v>
+        <v>4072511758.771588</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1432602749762031</v>
+        <v>0.1173200117605978</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02362351844946438</v>
+        <v>0.02478794387872533</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>987339356.4395634</v>
+        <v>1270462713.333599</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1100772823770579</v>
+        <v>0.08803002758542787</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02753311186705165</v>
+        <v>0.02532949277810324</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1269394540.514385</v>
+        <v>1425987639.94768</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08722446175198463</v>
+        <v>0.1167972717683972</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03680177061580209</v>
+        <v>0.03161500314182999</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3502460580.984715</v>
+        <v>3392242583.574145</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1184874796960783</v>
+        <v>0.1204444426270799</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01905976041656869</v>
+        <v>0.02084337869253447</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3294787087.577696</v>
+        <v>2509066734.850418</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1332195765056178</v>
+        <v>0.1505524386581663</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04934199501303546</v>
+        <v>0.04303745613704889</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5752622864.670712</v>
+        <v>5224874146.42524</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1491340078767205</v>
+        <v>0.143197309953206</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03563077192047358</v>
+        <v>0.04675265172581497</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1817214563.751809</v>
+        <v>1696030209.577538</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1000266831039153</v>
+        <v>0.09973771185739796</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02842662062223591</v>
+        <v>0.03237759262107033</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1410420224.346017</v>
+        <v>915403825.1789798</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1018448292061103</v>
+        <v>0.08952605246828561</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04887662314634127</v>
+        <v>0.05031005135473399</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1292841363.795877</v>
+        <v>1844806286.735351</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07285512855640949</v>
+        <v>0.08852027410776077</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02347320512415497</v>
+        <v>0.03449668394082419</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2841167787.771904</v>
+        <v>2241335077.314165</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1403315896976917</v>
+        <v>0.1837888579847571</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04377824785821661</v>
+        <v>0.05295003052459334</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1469391423.947907</v>
+        <v>1545075053.280384</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1205915194652188</v>
+        <v>0.1058562697257433</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02419128532878391</v>
+        <v>0.01970256605369331</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1360282211.158991</v>
+        <v>1007923068.47287</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1150293827646914</v>
+        <v>0.07372764789538895</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02719860987174868</v>
+        <v>0.04155136533969414</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2996662862.433596</v>
+        <v>3188214985.149242</v>
       </c>
       <c r="F36" t="n">
-        <v>0.135755243335828</v>
+        <v>0.1371219922781489</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02216644591846559</v>
+        <v>0.02886624760962976</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1802918918.087596</v>
+        <v>2620875522.066253</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08735100065818795</v>
+        <v>0.1076054650959727</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04222257490599482</v>
+        <v>0.03114340345012804</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2165037106.852186</v>
+        <v>1907827150.073177</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08282005652399187</v>
+        <v>0.082752147735261</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0307793441792108</v>
+        <v>0.03613787830174753</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1591349019.671285</v>
+        <v>1903239061.315219</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1847697025159834</v>
+        <v>0.1429639151621706</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02918805445619283</v>
+        <v>0.02246491221950801</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1152002842.491943</v>
+        <v>1422654744.190665</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1072693298594329</v>
+        <v>0.1528514347609262</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03851787032635927</v>
+        <v>0.05414949085829981</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2217698430.145697</v>
+        <v>2242746447.965813</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1430080977030435</v>
+        <v>0.1451988992860923</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04534322827383264</v>
+        <v>0.02981968083189334</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3542463571.368148</v>
+        <v>2995034410.342441</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1192696468593971</v>
+        <v>0.09025336579586037</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03117620944754024</v>
+        <v>0.04166542457754294</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2569455369.28761</v>
+        <v>2470756881.199353</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1382756720314393</v>
+        <v>0.1929802989873343</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01582601943249843</v>
+        <v>0.02117702944040654</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2047947108.051835</v>
+        <v>2294121717.436621</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07781356373052629</v>
+        <v>0.08302104307109769</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0296055912488841</v>
+        <v>0.03356037246389983</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1848587913.489879</v>
+        <v>1875480689.796445</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1189583864114844</v>
+        <v>0.1259919249743391</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0354702484587221</v>
+        <v>0.0474835007060723</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4574222188.209806</v>
+        <v>5701966119.726663</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1094004122218559</v>
+        <v>0.1656081861732543</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04151942656856965</v>
+        <v>0.04388891266762257</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4055474040.988403</v>
+        <v>4281245475.250962</v>
       </c>
       <c r="F47" t="n">
-        <v>0.200515751689822</v>
+        <v>0.1307965803495834</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05546770782080086</v>
+        <v>0.04413781595343274</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4703502895.841854</v>
+        <v>4020664983.958735</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09321297400128439</v>
+        <v>0.08982259749031787</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03261127005017811</v>
+        <v>0.02708141320914929</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1965306576.741697</v>
+        <v>1531410397.710703</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1789994715601964</v>
+        <v>0.1527217435749444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03996164716125698</v>
+        <v>0.03916666456090259</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3516700697.986627</v>
+        <v>3981473841.452172</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1684375574805351</v>
+        <v>0.1085885865014863</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03278452040937217</v>
+        <v>0.05140896411446751</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1470241033.551162</v>
+        <v>1534477939.368865</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1228720100427217</v>
+        <v>0.1713149407046959</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03406507491277526</v>
+        <v>0.03877771241335609</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4562233754.029751</v>
+        <v>3248715069.937899</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1314276908379064</v>
+        <v>0.1353956236377822</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04114666947050688</v>
+        <v>0.05228615243062402</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2515468290.807062</v>
+        <v>2406210562.650731</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2006342031290153</v>
+        <v>0.1240261500772942</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03208830982767773</v>
+        <v>0.02909747621969205</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4724878712.598301</v>
+        <v>3919978803.0748</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1351061838921378</v>
+        <v>0.1693217162720795</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03680385582293438</v>
+        <v>0.04474016941876288</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4363919156.422108</v>
+        <v>4493006521.772157</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1358233483095465</v>
+        <v>0.1554836577727823</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02415357354192041</v>
+        <v>0.02579626157930908</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1773287344.96868</v>
+        <v>1532180099.204986</v>
       </c>
       <c r="F56" t="n">
-        <v>0.114161287744427</v>
+        <v>0.1222713586091196</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04799593151690265</v>
+        <v>0.04284698375968612</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4495198151.132396</v>
+        <v>2855824043.921364</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1133926362078536</v>
+        <v>0.1195649082105272</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02687135771360004</v>
+        <v>0.02301370812841865</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1389573329.361729</v>
+        <v>1419184203.439263</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1414052306887112</v>
+        <v>0.1884649688292321</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02695433842495875</v>
+        <v>0.03720685985661874</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4627844579.766479</v>
+        <v>4923271990.557495</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08073903428958816</v>
+        <v>0.09132994327655812</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04293456933377925</v>
+        <v>0.04262493689612981</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3023443188.87274</v>
+        <v>3250199638.052579</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1463576921648494</v>
+        <v>0.2069183201067801</v>
       </c>
       <c r="G60" t="n">
-        <v>0.030750917922988</v>
+        <v>0.02058866003124813</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2628604640.437191</v>
+        <v>3027312010.744784</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1236137421288013</v>
+        <v>0.1196448147278554</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0244608618087125</v>
+        <v>0.03234692011697544</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2099050635.016526</v>
+        <v>2017202171.1136</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1295818492513576</v>
+        <v>0.1550439139473421</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03854224119813312</v>
+        <v>0.04048711392350924</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3685119354.165067</v>
+        <v>5191759901.368157</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08049102734869167</v>
+        <v>0.0805699868808628</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03851798838922579</v>
+        <v>0.04549778379809243</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4387176268.520936</v>
+        <v>3866599723.427196</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1198208156392323</v>
+        <v>0.1408698702388949</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03338239713695017</v>
+        <v>0.03130218042542672</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4085266679.690563</v>
+        <v>5000568928.546085</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1667651684821398</v>
+        <v>0.1245533830238512</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02622851144973402</v>
+        <v>0.02619593529996638</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4489968155.155929</v>
+        <v>3529488390.99768</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1138171189923434</v>
+        <v>0.1468403748260938</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03658952166701686</v>
+        <v>0.03408842515138383</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3221771944.715422</v>
+        <v>2964439523.89819</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08168099779954714</v>
+        <v>0.07573527512070957</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03220508529756593</v>
+        <v>0.03442697415807996</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5128167252.793938</v>
+        <v>5293282040.427054</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1416071933279994</v>
+        <v>0.1502212181016711</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05026532875269064</v>
+        <v>0.04760280744178043</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2016784798.755028</v>
+        <v>1885796647.957563</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1715895868733635</v>
+        <v>0.1463817316467771</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04844045424718586</v>
+        <v>0.05567573801382968</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2976620433.381599</v>
+        <v>2278677907.937408</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07322204969284674</v>
+        <v>0.06273232574899028</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04199944600651033</v>
+        <v>0.03343588960235588</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3781521604.813774</v>
+        <v>3419133018.810964</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1208473640566007</v>
+        <v>0.13673893145334</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03109444755438792</v>
+        <v>0.02223843590743606</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1971836909.321431</v>
+        <v>2174438299.303885</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09045125258784908</v>
+        <v>0.1063808735028333</v>
       </c>
       <c r="G72" t="n">
-        <v>0.049539279821425</v>
+        <v>0.03358644418388235</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2229941415.058053</v>
+        <v>3138593105.39032</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07643904429142484</v>
+        <v>0.06802457851011935</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05205556300742675</v>
+        <v>0.04299450284597465</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3119776605.271727</v>
+        <v>3582668363.336652</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1378468857427195</v>
+        <v>0.1643939020817339</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02707521533202676</v>
+        <v>0.03082049220542533</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2507574156.991672</v>
+        <v>1589639477.005517</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1246133272951049</v>
+        <v>0.1292803175582968</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02315325945840856</v>
+        <v>0.03217541004177876</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4217845947.286129</v>
+        <v>4122421418.609489</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09327462290042406</v>
+        <v>0.1093913523978991</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02323106795662009</v>
+        <v>0.02817389837914292</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1788887808.30708</v>
+        <v>2156003977.556479</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1128033438853073</v>
+        <v>0.1135059692270149</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02376201780049049</v>
+        <v>0.02972723906536777</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3337212804.211748</v>
+        <v>3714400988.414983</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09206871789529693</v>
+        <v>0.08337810712061312</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03853358729523662</v>
+        <v>0.046943980308534</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1555650269.621782</v>
+        <v>1733215990.750159</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1132052007837499</v>
+        <v>0.1149224207366307</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03890843801102493</v>
+        <v>0.03959611157866911</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3875427801.920797</v>
+        <v>5609204251.837521</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0899577059691659</v>
+        <v>0.08467824735124324</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03260774402599211</v>
+        <v>0.02473063475352097</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4093055597.773792</v>
+        <v>3962070225.490526</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1094808136367162</v>
+        <v>0.1307176815328121</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01992738214969699</v>
+        <v>0.02805289374425465</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4872686843.085918</v>
+        <v>4838037863.467374</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1810900826002577</v>
+        <v>0.1585178957103122</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02498498284400882</v>
+        <v>0.02677851861683659</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1790041287.270948</v>
+        <v>1712079697.13976</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09772319219092652</v>
+        <v>0.1175561993972544</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02874604812393552</v>
+        <v>0.03749447242404233</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2418785245.683584</v>
+        <v>1688665886.017239</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08747227053559152</v>
+        <v>0.1143146585432986</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04295377388693399</v>
+        <v>0.04431952815190021</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2684960760.625999</v>
+        <v>2663822786.948031</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1126021395839771</v>
+        <v>0.1423236817321115</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04021611820498042</v>
+        <v>0.04740252625884304</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1928614086.004943</v>
+        <v>2615214364.180237</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1072258961390807</v>
+        <v>0.1175231372381726</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02088873989706506</v>
+        <v>0.01906561262740176</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1159174546.328802</v>
+        <v>999859711.5950295</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1695883744020528</v>
+        <v>0.1360833183729614</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03509381620377543</v>
+        <v>0.0368204226703109</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2818996803.333635</v>
+        <v>2610052183.213199</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1364743755132326</v>
+        <v>0.1095423174342474</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03921287684520053</v>
+        <v>0.03598247295976881</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2603608561.593868</v>
+        <v>2761471172.956659</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1322380980794067</v>
+        <v>0.1534249617746298</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03620741108368463</v>
+        <v>0.03571969512916408</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2137602610.31599</v>
+        <v>1869146795.290854</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1146590444238128</v>
+        <v>0.1320046015856625</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03936102289988868</v>
+        <v>0.046894061039734</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2096573998.231515</v>
+        <v>1332509791.178935</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1825579075398315</v>
+        <v>0.1511130129471085</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05668828818664962</v>
+        <v>0.0466468796744641</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1849328810.072503</v>
+        <v>1816517642.376979</v>
       </c>
       <c r="F92" t="n">
-        <v>0.077357983619428</v>
+        <v>0.08369027017001394</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04519495492276841</v>
+        <v>0.0413199682029855</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4751104896.400799</v>
+        <v>4389609067.809666</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1111684001406378</v>
+        <v>0.1218093875985499</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05219152577456478</v>
+        <v>0.05194600210257054</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2489318069.581269</v>
+        <v>2302066886.358685</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1155549360461289</v>
+        <v>0.1588208056680938</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03558055200814785</v>
+        <v>0.02987104712674543</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2036447351.128071</v>
+        <v>2952784892.206258</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1036435692394237</v>
+        <v>0.1107691443018634</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03595303294803873</v>
+        <v>0.05167348330969173</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2314170866.394448</v>
+        <v>1890058779.812034</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1272532353996137</v>
+        <v>0.1225906819032316</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04094230805491175</v>
+        <v>0.02889539452668039</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3280249623.483891</v>
+        <v>4163141606.61426</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1284187859997625</v>
+        <v>0.14437581163139</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02104136620398123</v>
+        <v>0.02562925032466131</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3121499501.925724</v>
+        <v>2999681275.260405</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08335160273450602</v>
+        <v>0.1097472186272909</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02705939306129865</v>
+        <v>0.01985063218772952</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2834200518.098618</v>
+        <v>2819033814.001586</v>
       </c>
       <c r="F99" t="n">
-        <v>0.124002129025757</v>
+        <v>0.09739590476217633</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03381819847989347</v>
+        <v>0.03201330266238807</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4807559710.840972</v>
+        <v>4448844591.060459</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1634241625207531</v>
+        <v>0.137459791041641</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0170829818097048</v>
+        <v>0.02645176900018043</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3244882025.14022</v>
+        <v>3335522244.792572</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1806055869845056</v>
+        <v>0.1500227246800104</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04756887715018868</v>
+        <v>0.05338008055324797</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_401.xlsx
+++ b/output/fit_clients/fit_round_401.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2286410929.914775</v>
+        <v>1764359181.118099</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08731724085543038</v>
+        <v>0.07952428923133954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03814267997307035</v>
+        <v>0.03164529479659035</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2256165678.559253</v>
+        <v>2220058580.437586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1309624960585609</v>
+        <v>0.138336781702073</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03735756252976719</v>
+        <v>0.04113246269611127</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4325987447.942077</v>
+        <v>3282686290.498016</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1262421883972548</v>
+        <v>0.1306372267926137</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02992773653327475</v>
+        <v>0.03580813895427467</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>204</v>
+      </c>
+      <c r="J4" t="n">
+        <v>399</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3758614683.67966</v>
+        <v>3031726856.010531</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09711449266600868</v>
+        <v>0.08210964813699002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04112669383172007</v>
+        <v>0.03340666852663188</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>164</v>
+      </c>
+      <c r="J5" t="n">
+        <v>399</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2109970921.188449</v>
+        <v>2092550738.067444</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09587881140390125</v>
+        <v>0.1152658705891229</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04376383253850261</v>
+        <v>0.03454800723843614</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2741210123.670465</v>
+        <v>2351518611.511413</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09687567755684078</v>
+        <v>0.08934330907542964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04456226936483115</v>
+        <v>0.04389221084146211</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3904839893.302159</v>
+        <v>2821362435.564192</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1597421531159306</v>
+        <v>0.1498467234705513</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03025886173163811</v>
+        <v>0.02086855900780387</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>109</v>
+      </c>
+      <c r="J8" t="n">
+        <v>398</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2122026768.365157</v>
+        <v>2099802298.07696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1654357376363977</v>
+        <v>0.1989843452262951</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02899793120169742</v>
+        <v>0.02459879184878888</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +781,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3660084639.328973</v>
+        <v>4359545542.592282</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1343037943181949</v>
+        <v>0.1949035723107769</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03433674906321239</v>
+        <v>0.04627061184282521</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>324</v>
+      </c>
+      <c r="J10" t="n">
+        <v>401</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +810,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2610117870.083382</v>
+        <v>2949291962.092245</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1165479400968319</v>
+        <v>0.1712530063147907</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03817453602009568</v>
+        <v>0.043233336541966</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>169</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400</v>
+      </c>
+      <c r="K11" t="n">
+        <v>24.95571104740311</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2872219771.248013</v>
+        <v>2409292382.901983</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1878118754368411</v>
+        <v>0.1684034924714803</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04610672873828503</v>
+        <v>0.04695112938038182</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +888,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3422230769.400369</v>
+        <v>4689963626.489829</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0701497890871952</v>
+        <v>0.09707163541365932</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02377506815083576</v>
+        <v>0.03085878546249899</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>209</v>
+      </c>
+      <c r="J13" t="n">
+        <v>401</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3904746693.68013</v>
+        <v>3831301628.619279</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1735322703295468</v>
+        <v>0.1141042967573303</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04244344139815107</v>
+        <v>0.03464822408557087</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1718185010.33695</v>
+        <v>1184290091.838453</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08572783641949532</v>
+        <v>0.1033556040635208</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04461798400753757</v>
+        <v>0.0301368095055646</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2586131099.94167</v>
+        <v>2058997004.198067</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08066124694866367</v>
+        <v>0.08696934848606369</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04902808733528116</v>
+        <v>0.03449845367981445</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3495191620.241021</v>
+        <v>3909871864.316217</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1073149133697052</v>
+        <v>0.151187911747034</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04613551012794204</v>
+        <v>0.05026755632663193</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>194</v>
+      </c>
+      <c r="J17" t="n">
+        <v>400</v>
+      </c>
+      <c r="K17" t="n">
+        <v>36.21339078391892</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3377127826.538356</v>
+        <v>3983569520.33859</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1598803730302169</v>
+        <v>0.1420720521721223</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02904411689817301</v>
+        <v>0.02386054277477131</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>98</v>
+      </c>
+      <c r="J18" t="n">
+        <v>401</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1118730214.6584</v>
+        <v>1020233504.881424</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11633693358938</v>
+        <v>0.1311299090937829</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01925350986797921</v>
+        <v>0.02157879311615601</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2055954040.083816</v>
+        <v>1797776933.280169</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1372824138511343</v>
+        <v>0.1506487405386533</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02991463605585292</v>
+        <v>0.03003288507917029</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2405757571.46662</v>
+        <v>1735306722.203941</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0985278893146212</v>
+        <v>0.06500926595132087</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04178670575549711</v>
+        <v>0.03072110714776103</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3263576230.106793</v>
+        <v>3085478878.570636</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1150285661926542</v>
+        <v>0.1214672596724979</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04938639124454842</v>
+        <v>0.04754041811382875</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>111</v>
+      </c>
+      <c r="J22" t="n">
+        <v>399</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1548104933.145997</v>
+        <v>1523242566.280455</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1467761706605787</v>
+        <v>0.113013149392427</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03741584770928077</v>
+        <v>0.0427947386900315</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4072511758.771588</v>
+        <v>2599205854.458977</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1173200117605978</v>
+        <v>0.1013633557201345</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02478794387872533</v>
+        <v>0.02506328247387926</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>126</v>
+      </c>
+      <c r="J24" t="n">
+        <v>400</v>
+      </c>
+      <c r="K24" t="n">
+        <v>18.28916523430077</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1270462713.333599</v>
+        <v>1067426178.55162</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08803002758542787</v>
+        <v>0.08327438922267373</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02532949277810324</v>
+        <v>0.02561046161887068</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1425987639.94768</v>
+        <v>1369236744.183726</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1167972717683972</v>
+        <v>0.09279057453349865</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03161500314182999</v>
+        <v>0.03463037687388106</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3392242583.574145</v>
+        <v>3495710409.395477</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1204444426270799</v>
+        <v>0.1366498782561706</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02084337869253447</v>
+        <v>0.02697286294766858</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>168</v>
+      </c>
+      <c r="J27" t="n">
+        <v>400</v>
+      </c>
+      <c r="K27" t="n">
+        <v>33.08880806567834</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2509066734.850418</v>
+        <v>3174754950.7542</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1505524386581663</v>
+        <v>0.1280634004257604</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04303745613704889</v>
+        <v>0.04690008464918153</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>97</v>
+      </c>
+      <c r="J28" t="n">
+        <v>397</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5224874146.42524</v>
+        <v>5381024529.198856</v>
       </c>
       <c r="F29" t="n">
-        <v>0.143197309953206</v>
+        <v>0.1504918542010552</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04675265172581497</v>
+        <v>0.04093874249448369</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>340</v>
+      </c>
+      <c r="J29" t="n">
+        <v>400</v>
+      </c>
+      <c r="K29" t="n">
+        <v>43.74047162377328</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1696030209.577538</v>
+        <v>1970272706.967061</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09973771185739796</v>
+        <v>0.1381377182216095</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03237759262107033</v>
+        <v>0.02930187749376215</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>915403825.1789798</v>
+        <v>1012570387.986568</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08952605246828561</v>
+        <v>0.06994123747857763</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05031005135473399</v>
+        <v>0.04955107539614392</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1844806286.735351</v>
+        <v>1290354082.83346</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08852027410776077</v>
+        <v>0.1062909976680034</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03449668394082419</v>
+        <v>0.03139932965863691</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2241335077.314165</v>
+        <v>2603757212.657573</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1837888579847571</v>
+        <v>0.1507441622500404</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05295003052459334</v>
+        <v>0.04841258807713231</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1545075053.280384</v>
+        <v>1341588006.491189</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1058562697257433</v>
+        <v>0.1123331298563951</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01970256605369331</v>
+        <v>0.0264599610913754</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1007923068.47287</v>
+        <v>1047288949.566996</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07372764789538895</v>
+        <v>0.0797073644401711</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04155136533969414</v>
+        <v>0.04121415847324707</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3188214985.149242</v>
+        <v>2427358114.128944</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1371219922781489</v>
+        <v>0.1481716251515519</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02886624760962976</v>
+        <v>0.0180485802436568</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2620875522.066253</v>
+        <v>2878802917.277</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1076054650959727</v>
+        <v>0.09021593448266745</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03114340345012804</v>
+        <v>0.0258329128375972</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1907827150.073177</v>
+        <v>2014847202.608037</v>
       </c>
       <c r="F38" t="n">
-        <v>0.082752147735261</v>
+        <v>0.09705361059702901</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03613787830174753</v>
+        <v>0.03319068007893547</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1903239061.315219</v>
+        <v>1898718351.330423</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1429639151621706</v>
+        <v>0.1439030852319896</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02246491221950801</v>
+        <v>0.02285292467799323</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1422654744.190665</v>
+        <v>1141173954.394268</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1528514347609262</v>
+        <v>0.1598289875134299</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05414949085829981</v>
+        <v>0.04696525704893007</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2242746447.965813</v>
+        <v>2135340136.289469</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1451988992860923</v>
+        <v>0.1100140524539106</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02981968083189334</v>
+        <v>0.04053369194852373</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2995034410.342441</v>
+        <v>2767465066.490345</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09025336579586037</v>
+        <v>0.08769558367463284</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04166542457754294</v>
+        <v>0.04537873167837598</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>173</v>
+      </c>
+      <c r="J42" t="n">
+        <v>399</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2470756881.199353</v>
+        <v>2267169986.83624</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1929802989873343</v>
+        <v>0.1627021870096494</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02117702944040654</v>
+        <v>0.01796152913341308</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2294121717.436621</v>
+        <v>1782855124.085566</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08302104307109769</v>
+        <v>0.09779332383574292</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03356037246389983</v>
+        <v>0.02404050154664817</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1875480689.796445</v>
+        <v>2319316774.036699</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1259919249743391</v>
+        <v>0.1727580144745519</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0474835007060723</v>
+        <v>0.04734366558722246</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5701966119.726663</v>
+        <v>5497894742.269955</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1656081861732543</v>
+        <v>0.1276436327849974</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04388891266762257</v>
+        <v>0.05902586187063073</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>241</v>
+      </c>
+      <c r="J46" t="n">
+        <v>400</v>
+      </c>
+      <c r="K46" t="n">
+        <v>45.83944871671822</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4281245475.250962</v>
+        <v>4985341567.530103</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1307965803495834</v>
+        <v>0.187146214988383</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04413781595343274</v>
+        <v>0.03958771413077459</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>180</v>
+      </c>
+      <c r="J47" t="n">
+        <v>400</v>
+      </c>
+      <c r="K47" t="n">
+        <v>45.86602567809737</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4020664983.958735</v>
+        <v>4532273185.811746</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08982259749031787</v>
+        <v>0.09046109566594066</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02708141320914929</v>
+        <v>0.03443880993141962</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>206</v>
+      </c>
+      <c r="J48" t="n">
+        <v>401</v>
+      </c>
+      <c r="K48" t="n">
+        <v>49.79581114523381</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1531410397.710703</v>
+        <v>1217790924.91355</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1527217435749444</v>
+        <v>0.1291463794488404</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03916666456090259</v>
+        <v>0.0290852401317336</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3981473841.452172</v>
+        <v>3757445735.441478</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1085885865014863</v>
+        <v>0.1696349567498657</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05140896411446751</v>
+        <v>0.05229350586846615</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>136</v>
+      </c>
+      <c r="J50" t="n">
+        <v>401</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1534477939.368865</v>
+        <v>989353297.6459301</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1713149407046959</v>
+        <v>0.1520936804369034</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03877771241335609</v>
+        <v>0.03384883580107777</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3248715069.937899</v>
+        <v>4390843726.937662</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1353956236377822</v>
+        <v>0.1204172505403373</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05228615243062402</v>
+        <v>0.0414019440402158</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>233</v>
+      </c>
+      <c r="J52" t="n">
+        <v>400</v>
+      </c>
+      <c r="K52" t="n">
+        <v>45.8993914982177</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2406210562.650731</v>
+        <v>3633197557.145043</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1240261500772942</v>
+        <v>0.1722282882156531</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02909747621969205</v>
+        <v>0.02612462911706029</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>401</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3919978803.0748</v>
+        <v>3311569115.731282</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1693217162720795</v>
+        <v>0.1558664525688725</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04474016941876288</v>
+        <v>0.03656947658487791</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>214</v>
+      </c>
+      <c r="J54" t="n">
+        <v>399</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4493006521.772157</v>
+        <v>4226964603.42469</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1554836577727823</v>
+        <v>0.1812534963027627</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02579626157930908</v>
+        <v>0.02124084469846618</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>193</v>
+      </c>
+      <c r="J55" t="n">
+        <v>401</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1532180099.204986</v>
+        <v>1674105232.758597</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1222713586091196</v>
+        <v>0.1128311256455869</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04284698375968612</v>
+        <v>0.05638824458669671</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2855824043.921364</v>
+        <v>4332539319.303318</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1195649082105272</v>
+        <v>0.1695137531334248</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02301370812841865</v>
+        <v>0.02526760513652204</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>171</v>
+      </c>
+      <c r="J57" t="n">
+        <v>401</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1419184203.439263</v>
+        <v>1574056974.798479</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1884649688292321</v>
+        <v>0.1855822273062608</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03720685985661874</v>
+        <v>0.02419961520535302</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2514,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4923271990.557495</v>
+        <v>5321209567.648112</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09132994327655812</v>
+        <v>0.1036205660528572</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04262493689612981</v>
+        <v>0.0419394277568275</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>196</v>
+      </c>
+      <c r="J59" t="n">
+        <v>401</v>
+      </c>
+      <c r="K59" t="n">
+        <v>48.09646093457116</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3250199638.052579</v>
+        <v>2316447971.985407</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2069183201067801</v>
+        <v>0.1268329842199273</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02058866003124813</v>
+        <v>0.02672551763041701</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>73</v>
+      </c>
+      <c r="J60" t="n">
+        <v>397</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3027312010.744784</v>
+        <v>3353263581.600759</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1196448147278554</v>
+        <v>0.1464640018742643</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03234692011697544</v>
+        <v>0.02210134528451776</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2017202171.1136</v>
+        <v>1318519973.690191</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1550439139473421</v>
+        <v>0.1841992795831295</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04048711392350924</v>
+        <v>0.04456122308984575</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5191759901.368157</v>
+        <v>5042126760.297428</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0805699868808628</v>
+        <v>0.09818682866932588</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04549778379809243</v>
+        <v>0.03201783863670926</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>199</v>
+      </c>
+      <c r="J63" t="n">
+        <v>401</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3866599723.427196</v>
+        <v>4285693287.108952</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1408698702388949</v>
+        <v>0.1226756322590941</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03130218042542672</v>
+        <v>0.03512459471746849</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>200</v>
+      </c>
+      <c r="J64" t="n">
+        <v>401</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5000568928.546085</v>
+        <v>5350632080.264058</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1245533830238512</v>
+        <v>0.1262202936120506</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02619593529996638</v>
+        <v>0.02688852962728893</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>297</v>
+      </c>
+      <c r="J65" t="n">
+        <v>400</v>
+      </c>
+      <c r="K65" t="n">
+        <v>47.2850740930552</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3529488390.99768</v>
+        <v>4040394750.764286</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1468403748260938</v>
+        <v>0.1446768211367819</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03408842515138383</v>
+        <v>0.05086652185526547</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>198</v>
+      </c>
+      <c r="J66" t="n">
+        <v>401</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2798,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2964439523.89819</v>
+        <v>2609520565.959957</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07573527512070957</v>
+        <v>0.06398881654810797</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03442697415807996</v>
+        <v>0.03588126587246925</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5293282040.427054</v>
+        <v>5866526162.404437</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1502212181016711</v>
+        <v>0.1558154321309544</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04760280744178043</v>
+        <v>0.04665123923296732</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>218</v>
+      </c>
+      <c r="J68" t="n">
+        <v>401</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1885796647.957563</v>
+        <v>2377055714.674372</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1463817316467771</v>
+        <v>0.1603063573891891</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05567573801382968</v>
+        <v>0.04730994546073595</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2278677907.937408</v>
+        <v>2735922183.266418</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06273232574899028</v>
+        <v>0.08767110469131079</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03343588960235588</v>
+        <v>0.03881304409229321</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3419133018.810964</v>
+        <v>4862153165.69687</v>
       </c>
       <c r="F71" t="n">
-        <v>0.13673893145334</v>
+        <v>0.1566074778916518</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02223843590743606</v>
+        <v>0.02910445804626017</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>284</v>
+      </c>
+      <c r="J71" t="n">
+        <v>401</v>
+      </c>
+      <c r="K71" t="n">
+        <v>47.61369129301402</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2174438299.303885</v>
+        <v>1864168158.568431</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1063808735028333</v>
+        <v>0.09002009578509006</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03358644418388235</v>
+        <v>0.05038051168454868</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3010,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3138593105.39032</v>
+        <v>2622231554.291847</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06802457851011935</v>
+        <v>0.0853923848979274</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04299450284597465</v>
+        <v>0.05015961814245766</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3039,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3582668363.336652</v>
+        <v>2487110668.362636</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1643939020817339</v>
+        <v>0.1129575425288619</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03082049220542533</v>
+        <v>0.02817680754875701</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3074,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1589639477.005517</v>
+        <v>1771916275.568639</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1292803175582968</v>
+        <v>0.1428458642592109</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03217541004177876</v>
+        <v>0.037111713524358</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3109,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4122421418.609489</v>
+        <v>3416346044.883303</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1093913523978991</v>
+        <v>0.1133690691851482</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02817389837914292</v>
+        <v>0.03164567611383937</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>190</v>
+      </c>
+      <c r="J76" t="n">
+        <v>400</v>
+      </c>
+      <c r="K76" t="n">
+        <v>28.4538038064815</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3152,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2156003977.556479</v>
+        <v>1677836115.473516</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1135059692270149</v>
+        <v>0.123545169448046</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02972723906536777</v>
+        <v>0.02605561887476669</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3181,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3714400988.414983</v>
+        <v>4416296416.331457</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08337810712061312</v>
+        <v>0.09525438766024437</v>
       </c>
       <c r="G78" t="n">
-        <v>0.046943980308534</v>
+        <v>0.05252667136324436</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>199</v>
+      </c>
+      <c r="J78" t="n">
+        <v>401</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1733215990.750159</v>
+        <v>1694187276.227313</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1149224207366307</v>
+        <v>0.1405774680767496</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03959611157866911</v>
+        <v>0.02679097353828774</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5609204251.837521</v>
+        <v>4088305097.942599</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08467824735124324</v>
+        <v>0.09694254803736199</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02473063475352097</v>
+        <v>0.03507152051121737</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>196</v>
+      </c>
+      <c r="J80" t="n">
+        <v>400</v>
+      </c>
+      <c r="K80" t="n">
+        <v>35.26239347722484</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3288,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3962070225.490526</v>
+        <v>4788763177.187065</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1307176815328121</v>
+        <v>0.1077839120478313</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02805289374425465</v>
+        <v>0.02843109842290514</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>186</v>
+      </c>
+      <c r="J81" t="n">
+        <v>401</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3323,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4838037863.467374</v>
+        <v>5476406924.711427</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1585178957103122</v>
+        <v>0.1618228996893122</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02677851861683659</v>
+        <v>0.0193051818543584</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>275</v>
+      </c>
+      <c r="J82" t="n">
+        <v>400</v>
+      </c>
+      <c r="K82" t="n">
+        <v>45.06315448961809</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3366,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1712079697.13976</v>
+        <v>2118419331.932697</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1175561993972544</v>
+        <v>0.1295702725422395</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03749447242404233</v>
+        <v>0.03804120922781186</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3395,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1688665886.017239</v>
+        <v>1716954114.938415</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1143146585432986</v>
+        <v>0.08548374782021632</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04431952815190021</v>
+        <v>0.0450681259741765</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3436,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2663822786.948031</v>
+        <v>3359987570.000539</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1423236817321115</v>
+        <v>0.1562333391914613</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04740252625884304</v>
+        <v>0.04951854282306446</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>51</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="n">
+        <v>49.96329324836151</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2615214364.180237</v>
+        <v>2009978181.512495</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1175231372381726</v>
+        <v>0.1642917340788948</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01906561262740176</v>
+        <v>0.01862040126920671</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3508,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>999859711.5950295</v>
+        <v>1254967128.510578</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1360833183729614</v>
+        <v>0.1154943836252037</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0368204226703109</v>
+        <v>0.03806379312092663</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2610052183.213199</v>
+        <v>3001372990.571892</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1095423174342474</v>
+        <v>0.155978492005244</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03598247295976881</v>
+        <v>0.03849022430459624</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2761471172.956659</v>
+        <v>2687293790.099535</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1534249617746298</v>
+        <v>0.1511840669822092</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03571969512916408</v>
+        <v>0.02626464006739321</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1869146795.290854</v>
+        <v>1386509545.982799</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1320046015856625</v>
+        <v>0.1177684356952692</v>
       </c>
       <c r="G90" t="n">
-        <v>0.046894061039734</v>
+        <v>0.05445071384652676</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3648,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1332509791.178935</v>
+        <v>2030402049.285091</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1511130129471085</v>
+        <v>0.1737669094756415</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0466468796744641</v>
+        <v>0.05478278045074177</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1816517642.376979</v>
+        <v>2347299741.378751</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08369027017001394</v>
+        <v>0.1051371448771763</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0413199682029855</v>
+        <v>0.03483359015003822</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3718,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4389609067.809666</v>
+        <v>4731825868.991564</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1218093875985499</v>
+        <v>0.1157023548054629</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05194600210257054</v>
+        <v>0.03708139747321341</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>192</v>
+      </c>
+      <c r="J93" t="n">
+        <v>400</v>
+      </c>
+      <c r="K93" t="n">
+        <v>44.97498772594616</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2302066886.358685</v>
+        <v>2024325258.025467</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1588208056680938</v>
+        <v>0.1088684616899386</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02987104712674543</v>
+        <v>0.04326255965689185</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2952784892.206258</v>
+        <v>2203386413.575253</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1107691443018634</v>
+        <v>0.1231701217744543</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05167348330969173</v>
+        <v>0.045230343736929</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1890058779.812034</v>
+        <v>1451639296.024734</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1225906819032316</v>
+        <v>0.08826103818537341</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02889539452668039</v>
+        <v>0.02971422611948803</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4163141606.61426</v>
+        <v>4397752600.190148</v>
       </c>
       <c r="F97" t="n">
-        <v>0.14437581163139</v>
+        <v>0.170280647140615</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02562925032466131</v>
+        <v>0.02623156019617203</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>209</v>
+      </c>
+      <c r="J97" t="n">
+        <v>400</v>
+      </c>
+      <c r="K97" t="n">
+        <v>47.37492710397748</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2999681275.260405</v>
+        <v>3774580085.523644</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1097472186272909</v>
+        <v>0.08409232706161092</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01985063218772952</v>
+        <v>0.03252322950456748</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>103</v>
+      </c>
+      <c r="J98" t="n">
+        <v>401</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3932,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2819033814.001586</v>
+        <v>2202803962.424317</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09739590476217633</v>
+        <v>0.1465999233006965</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03201330266238807</v>
+        <v>0.02851881349877887</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4448844591.060459</v>
+        <v>4635323834.396631</v>
       </c>
       <c r="F100" t="n">
-        <v>0.137459791041641</v>
+        <v>0.1703568919293266</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02645176900018043</v>
+        <v>0.02429978750028697</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>186</v>
+      </c>
+      <c r="J100" t="n">
+        <v>401</v>
+      </c>
+      <c r="K100" t="n">
+        <v>49.85828855590596</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3335522244.792572</v>
+        <v>2187238132.959973</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1500227246800104</v>
+        <v>0.1758394667375478</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05338008055324797</v>
+        <v>0.04936297627108532</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="n">
+        <v>21.61485847745627</v>
       </c>
     </row>
   </sheetData>
